--- a/biology/Botanique/Dietes_iridioides/Dietes_iridioides.xlsx
+++ b/biology/Botanique/Dietes_iridioides/Dietes_iridioides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dietes iridioides est une espèce végétale de la famille des Iridaceae. Parfois appelée iris sud-africain sauvage ou iris d'Afrique du sud.
 </t>
@@ -511,7 +523,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante à fleurs est originaire des plaines du Kenya et d'Afrique du Sud.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Chaque fleur, blanche avec des marques jaune et mauve, de cette plante ne dure qu'un jour, mais elle est vite remplacée par d'autres fleurs. Elle pousse à partir d'un rhizome.
 			Parc national Kruger, Afrique du Sud.
@@ -575,7 +591,9 @@
           <t>Utilisation par l'Homme</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet iris est très souvent utilisé par les fleuristes et les paysagistes.
 </t>
